--- a/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15251D89-535E-4EEF-B662-9422B7628AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CB557-CF45-4201-91A5-F6A808A50766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -370,16 +370,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「メニュうーに戻る」リンクが表示されている</t>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メニューへ戻るリンクをクリック</t>
     <rPh sb="5" eb="6">
       <t>モド</t>
@@ -451,6 +441,16 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「メニューに戻る」リンクが表示されている</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -811,6 +811,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -821,6 +836,60 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +898,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -855,126 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1346,25 +1346,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,23 +1379,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="62" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1408,48 +1408,48 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="52"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1458,20 +1458,20 @@
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1481,82 +1481,82 @@
       <c r="O5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="54"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="11">
-      <c r="A6" s="68">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" ht="11">
-      <c r="A7" s="68">
+      <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="13"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
-      <c r="A8" s="68">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="13"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1564,22 +1564,22 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A9" s="68">
+      <c r="A9" s="18">
         <v>4</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="21" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
       <c r="M9" s="13"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1587,22 +1587,22 @@
       <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A10" s="68">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="21" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="13"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1610,45 +1610,45 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="22" customHeight="1">
-      <c r="A11" s="68">
+      <c r="A11" s="18">
         <v>6</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="21" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="13"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" ht="22" customHeight="1">
-      <c r="A12" s="68">
+      <c r="A12" s="18">
         <v>7</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
       <c r="M12" s="13"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1656,47 +1656,47 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11">
-      <c r="A13" s="68">
+      <c r="A13" s="18">
         <v>8</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="21" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
       <c r="M13" s="13"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:17" ht="11">
-      <c r="A14" s="68">
+      <c r="A14" s="18">
         <v>9</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="35" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="13"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1704,47 +1704,47 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
-      <c r="A15" s="68">
+      <c r="A15" s="18">
         <v>10</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="21" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
       <c r="M15" s="13"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:17" ht="11">
-      <c r="A16" s="68">
+      <c r="A16" s="18">
         <v>11</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="40" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="21" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
       <c r="M16" s="13"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1752,108 +1752,108 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A17" s="68">
+      <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="13"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A18" s="68">
+      <c r="A18" s="18">
         <v>13</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="13"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A19" s="68">
+      <c r="A19" s="18">
         <v>14</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="13"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A20" s="69">
+      <c r="A20" s="19">
         <v>15</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="72"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="B21" s="4"/>
@@ -1869,18 +1869,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C8:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C13:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -1896,26 +1900,22 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C13:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C8:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CB557-CF45-4201-91A5-F6A808A50766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D533DDF-DBA5-4160-9748-839548965C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>作成者</t>
   </si>
@@ -281,32 +281,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「商品情報メンテナンス」、「商品カテゴリ登録」、「アカウント登録」リンクが表示されている</t>
-    <rPh sb="1" eb="5">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログアウトボタンが表示されている</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>購入日プルダウン、顧客アカウント（氏名）プルダウン、検索ボタンが表示されている</t>
     <rPh sb="0" eb="3">
       <t>コウニュウビ</t>
@@ -370,87 +344,407 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニューへ戻るリンクをクリック</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン後メニュー画面へ遷移すること</t>
-    <rPh sb="4" eb="5">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログアウトボタンをクリック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログインメニュー画面へ遷移すること</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>検索ボタンをクリック</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フロントエンド作成後にテスト</t>
-    <rPh sb="7" eb="10">
-      <t>サクセイゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セキュリティ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>url直打ち</t>
-    <rPh sb="3" eb="5">
-      <t>ジカウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニュー画面に遷移</t>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「メニューに戻る」リンクが表示されている</t>
     <rPh sb="6" eb="7">
       <t>モド</t>
     </rPh>
     <rPh sb="13" eb="15">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクを押下</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品カテゴリ登録(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクを押下</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入履歴検索画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクを押下</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録(入力)画面へ遷移すること</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」を押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページネーションの「3」を押下</t>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索の次の商品情報の画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページネーション「３」から「前へ」を押下</t>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索の２ページ目の商品情報の画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページネーションの「２」から「最初」を押下</t>
+    <rPh sb="15" eb="17">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索の１ページ目の商品情報の画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページネーションの「１」から「次へ」を押下</t>
+    <rPh sb="15" eb="16">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページネーションの「１」から「最後」を押下</t>
+    <rPh sb="15" eb="17">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品検索の９ページ目の商品情報の画面へ遷移すること</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「更新」を押下</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索画面」と表示されている</t>
+    <rPh sb="1" eb="7">
+      <t>コウニュウリレキケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品情報メンテナンス」リンクが表示されている</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品カテゴリ登録」リンクが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入履歴検索」リンクが表示されている</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」リンクが表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」ボタンが表示されている</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文ステータス更新(入力)画面へ遷移すること</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/customerorder/orderlist」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/customerorder/orderlist」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -758,7 +1052,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,11 +1108,83 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -826,20 +1192,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,104 +1258,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1326,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:L12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1346,25 +1631,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,23 +1664,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1408,48 +1693,48 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1458,20 +1743,20 @@
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1481,82 +1766,82 @@
       <c r="O5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
       <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="13"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="64" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="44" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="13"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1567,19 +1852,19 @@
       <c r="A9" s="18">
         <v>4</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="13"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1590,19 +1875,19 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="13"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1613,284 +1898,596 @@
       <c r="A11" s="18">
         <v>6</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="13"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="48"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" ht="22" customHeight="1">
       <c r="A12" s="18">
         <v>7</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="13"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" ht="11">
-      <c r="A13" s="18">
-        <v>8</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="52" t="s">
+    <row r="13" spans="1:17" ht="11" customHeight="1">
+      <c r="A13" s="69">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="44" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="13"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" ht="11">
-      <c r="A14" s="18">
-        <v>9</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="11" customHeight="1">
+      <c r="A14" s="69">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="13"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
-      <c r="A15" s="18">
-        <v>10</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="A15" s="69">
+        <v>5</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="13"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
-    </row>
-    <row r="16" spans="1:17" ht="11">
-      <c r="A16" s="18">
-        <v>11</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" ht="11" customHeight="1">
+      <c r="A16" s="69">
+        <v>6</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="13"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A17" s="18">
-        <v>12</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="1:17" ht="11" customHeight="1">
+      <c r="A17" s="69">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="13"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A18" s="18">
-        <v>13</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:17" ht="11" customHeight="1">
+      <c r="A18" s="69">
+        <v>8</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+        <v>65</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="13"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-    </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A19" s="18">
-        <v>14</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="1:17" ht="11" customHeight="1">
+      <c r="A19" s="69">
+        <v>9</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="13"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-    </row>
-    <row r="20" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A20" s="19">
-        <v>15</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" ht="13" customHeight="1">
+      <c r="A20" s="69">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" spans="1:17" ht="13" customHeight="1">
+      <c r="A21" s="69">
+        <v>20</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+    </row>
+    <row r="22" spans="1:17" ht="13" customHeight="1">
+      <c r="A22" s="69">
+        <v>21</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" spans="1:17" ht="13" customHeight="1">
+      <c r="A23" s="69">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" spans="1:17" ht="13" customHeight="1">
+      <c r="A24" s="69">
+        <v>23</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+    </row>
+    <row r="25" spans="1:17" ht="13" customHeight="1">
+      <c r="A25" s="69">
+        <v>24</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+    </row>
+    <row r="26" spans="1:17" ht="13" customHeight="1">
+      <c r="A26" s="69">
+        <v>25</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+    </row>
+    <row r="27" spans="1:17" ht="26" customHeight="1">
+      <c r="A27" s="69">
+        <v>26</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+    </row>
+    <row r="28" spans="1:17" ht="26" customHeight="1">
+      <c r="A28" s="69">
+        <v>27</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+    </row>
+    <row r="29" spans="1:17" ht="26" customHeight="1">
+      <c r="A29" s="69">
+        <v>28</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+    </row>
+    <row r="30" spans="1:17" ht="26" customHeight="1">
+      <c r="A30" s="69">
+        <v>29</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+    </row>
+    <row r="31" spans="1:17" ht="56.5" customHeight="1">
+      <c r="A31" s="69">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A32" s="69">
+        <v>31</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C8:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C13:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H14:L14"/>
+  <mergeCells count="74">
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C13:G18"/>
     <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
@@ -1901,21 +2498,18 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C8:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D533DDF-DBA5-4160-9748-839548965C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF32C2-8A7F-404C-9E98-04A4EB83AA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -723,27 +723,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/customerorder/orderlist」を入力</t>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/customerorder/orderlist」を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="74" eb="76">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/customerorder/orderlist」を入力</t>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/customerorder/orderlist」を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="75" eb="77">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1108,23 +1108,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1152,114 +1260,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:G31"/>
+      <selection activeCell="C32" sqref="C32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1631,25 +1631,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1664,23 +1664,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="63" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1693,48 +1693,48 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1743,20 +1743,20 @@
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1766,75 +1766,75 @@
       <c r="O5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="55"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="45" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="13"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="22" t="s">
         <v>30</v>
       </c>
@@ -1852,12 +1852,12 @@
       <c r="A9" s="18">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="22" t="s">
         <v>33</v>
       </c>
@@ -1875,12 +1875,12 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="22" t="s">
         <v>34</v>
       </c>
@@ -1898,12 +1898,12 @@
       <c r="A11" s="18">
         <v>6</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="22" t="s">
         <v>35</v>
       </c>
@@ -1914,19 +1914,19 @@
       <c r="M11" s="13"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="1:17" ht="22" customHeight="1">
       <c r="A12" s="18">
         <v>7</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="22" t="s">
         <v>36</v>
       </c>
@@ -1941,17 +1941,17 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
-      <c r="A13" s="69">
+      <c r="A13" s="19">
         <v>3</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="22" t="s">
         <v>26</v>
       </c>
@@ -1966,15 +1966,15 @@
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
-      <c r="A14" s="69">
+      <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="22" t="s">
         <v>61</v>
       </c>
@@ -1989,15 +1989,15 @@
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
-      <c r="A15" s="69">
+      <c r="A15" s="19">
         <v>5</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="22" t="s">
         <v>62</v>
       </c>
@@ -2012,15 +2012,15 @@
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
-      <c r="A16" s="69">
+      <c r="A16" s="19">
         <v>6</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="22" t="s">
         <v>63</v>
       </c>
@@ -2035,15 +2035,15 @@
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11" customHeight="1">
-      <c r="A17" s="69">
+      <c r="A17" s="19">
         <v>7</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="22" t="s">
         <v>64</v>
       </c>
@@ -2058,15 +2058,15 @@
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="11" customHeight="1">
-      <c r="A18" s="69">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="22" t="s">
         <v>65</v>
       </c>
@@ -2081,17 +2081,17 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="11" customHeight="1">
-      <c r="A19" s="69">
+      <c r="A19" s="19">
         <v>9</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="22" t="s">
         <v>28</v>
       </c>
@@ -2106,10 +2106,10 @@
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
-      <c r="A20" s="69">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -2119,24 +2119,24 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="13"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
-      <c r="A21" s="69">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="22" t="s">
         <v>42</v>
       </c>
@@ -2144,24 +2144,24 @@
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="13"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
-      <c r="A22" s="69">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="22" t="s">
         <v>44</v>
       </c>
@@ -2169,24 +2169,24 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="13"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="13" customHeight="1">
-      <c r="A23" s="69">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="22" t="s">
         <v>46</v>
       </c>
@@ -2194,24 +2194,24 @@
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="13"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
-      <c r="A24" s="69">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="22" t="s">
         <v>48</v>
       </c>
@@ -2219,24 +2219,24 @@
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="13"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
-      <c r="A25" s="69">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="22" t="s">
         <v>59</v>
       </c>
@@ -2244,24 +2244,24 @@
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="13"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
-      <c r="A26" s="69">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="22" t="s">
         <v>50</v>
       </c>
@@ -2269,24 +2269,24 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="49"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="13"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="1:17" ht="26" customHeight="1">
-      <c r="A27" s="69">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="22" t="s">
         <v>52</v>
       </c>
@@ -2304,14 +2304,14 @@
       <c r="M27" s="13"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="26" customHeight="1">
-      <c r="A28" s="69">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="22" t="s">
         <v>54</v>
       </c>
@@ -2329,14 +2329,14 @@
       <c r="M28" s="13"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
     </row>
     <row r="29" spans="1:17" ht="26" customHeight="1">
-      <c r="A29" s="69">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="22" t="s">
         <v>56</v>
       </c>
@@ -2354,14 +2354,14 @@
       <c r="M29" s="13"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
     </row>
     <row r="30" spans="1:17" ht="26" customHeight="1">
-      <c r="A30" s="69">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="22" t="s">
         <v>57</v>
       </c>
@@ -2379,14 +2379,14 @@
       <c r="M30" s="13"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
     </row>
     <row r="31" spans="1:17" ht="56.5" customHeight="1">
-      <c r="A31" s="69">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="22" t="s">
@@ -2396,13 +2396,13 @@
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
       <c r="M31" s="13"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -2410,7 +2410,7 @@
       <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A32" s="69">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="21"/>
@@ -2421,13 +2421,13 @@
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="49"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
       <c r="M32" s="13"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -2436,11 +2436,59 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C8:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="C13:G18"/>
     <mergeCell ref="H17:L17"/>
@@ -2457,59 +2505,11 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C8:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF32C2-8A7F-404C-9E98-04A4EB83AA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D18429F-94B2-4DED-BF3B-37FD3FCD260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>body</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -745,6 +741,16 @@
     </rPh>
     <rPh sb="75" eb="77">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1111,22 +1117,121 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1135,9 +1240,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1164,102 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1613,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1631,25 +1637,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,27 +1666,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1693,48 +1699,48 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1743,20 +1749,20 @@
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1766,82 +1772,82 @@
       <c r="O5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="13"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="13"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="18">
         <v>3</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="13"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1852,19 +1858,19 @@
       <c r="A9" s="18">
         <v>4</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="13"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1875,19 +1881,19 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="13"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1898,42 +1904,42 @@
       <c r="A11" s="18">
         <v>6</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="13"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="22" customHeight="1">
       <c r="A12" s="18">
         <v>7</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="13"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1944,21 +1950,21 @@
       <c r="A13" s="19">
         <v>3</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="13"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1969,19 +1975,19 @@
       <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="13"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1992,19 +1998,19 @@
       <c r="A15" s="19">
         <v>5</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="13"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2015,19 +2021,19 @@
       <c r="A16" s="19">
         <v>6</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
       <c r="M16" s="13"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2038,19 +2044,19 @@
       <c r="A17" s="19">
         <v>7</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="13"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2061,19 +2067,19 @@
       <c r="A18" s="19">
         <v>8</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="13"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2084,21 +2090,21 @@
       <c r="A19" s="19">
         <v>9</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="13"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2109,300 +2115,300 @@
       <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="13"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
       <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
       <c r="M21" s="13"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
       <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
       <c r="M22" s="13"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="1:17" ht="13" customHeight="1">
       <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="13"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="13"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="13"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="1:17" ht="13" customHeight="1">
       <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
       <c r="M26" s="13"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:17" ht="26" customHeight="1">
       <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="13"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17" ht="26" customHeight="1">
       <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="13"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="26" customHeight="1">
       <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="13"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" ht="26" customHeight="1">
       <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="13"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="1:17" ht="56.5" customHeight="1">
       <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="13"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -2413,21 +2419,21 @@
       <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="13"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -2436,11 +2442,59 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C8:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C13:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2457,59 +2511,11 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C13:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C8:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP015購入履歴検索画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D18429F-94B2-4DED-BF3B-37FD3FCD260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9436E00F-B079-4DBE-8881-B7ECF2F35FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>作成者</t>
   </si>
@@ -253,13 +253,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「購入履歴検索」と表示されている</t>
-    <rPh sb="1" eb="7">
-      <t>コウニュウリレキケンサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン状態、注文なし</t>
     <rPh sb="4" eb="6">
       <t>ジョウタイ</t>
@@ -357,16 +350,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -752,6 +735,55 @@
     <rPh sb="2" eb="4">
       <t>ショウケン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品が少ないため表示されない</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面が変わらない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクがない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面表示項目、入力内容におけるシステムの挙動、画面推移について確認する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1058,7 +1090,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1117,6 +1149,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1126,14 +1164,107 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1153,119 +1284,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1617,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1637,25 +1660,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,27 +1689,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1696,51 +1719,55 @@
       <c r="P2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1749,20 +1776,20 @@
       <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1772,734 +1799,823 @@
       <c r="O5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" ht="22.5" customHeight="1">
+      <c r="A8" s="18">
+        <v>4</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-    </row>
-    <row r="8" spans="1:17" ht="13" customHeight="1">
-      <c r="A8" s="18">
-        <v>3</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="22.5" customHeight="1">
       <c r="A9" s="18">
-        <v>4</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:17" ht="22.5" customHeight="1">
+    <row r="10" spans="1:17" ht="22" customHeight="1">
       <c r="A10" s="18">
-        <v>5</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="22" customHeight="1">
       <c r="A11" s="18">
-        <v>6</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="42"/>
-    </row>
-    <row r="12" spans="1:17" ht="22" customHeight="1">
-      <c r="A12" s="18">
-        <v>7</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="29"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" ht="11" customHeight="1">
+      <c r="A12" s="19">
+        <v>3</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
+      <c r="H12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="19">
-        <v>3</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="11" customHeight="1">
       <c r="A14" s="19">
-        <v>4</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="19">
-        <v>5</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="19">
-        <v>6</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11" customHeight="1">
       <c r="A17" s="19">
-        <v>7</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P17" s="16"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="11" customHeight="1">
       <c r="A18" s="19">
-        <v>8</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:17" ht="11" customHeight="1">
+    <row r="19" spans="1:17" ht="13" customHeight="1">
       <c r="A19" s="19">
-        <v>9</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
       <c r="A20" s="19">
-        <v>19</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="38" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
       <c r="A21" s="19">
-        <v>20</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="38" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
       <c r="A22" s="19">
-        <v>21</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="38" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="13" customHeight="1">
       <c r="A23" s="19">
-        <v>22</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="38" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="1:17" ht="13" customHeight="1">
       <c r="A24" s="19">
-        <v>23</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="13" customHeight="1">
       <c r="A25" s="19">
-        <v>24</v>
-      </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-    </row>
-    <row r="26" spans="1:17" ht="13" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="1:17" ht="26" customHeight="1">
       <c r="A26" s="19">
-        <v>25</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="58" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="1:17" ht="26" customHeight="1">
       <c r="A27" s="19">
-        <v>26</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="20" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="26" customHeight="1">
       <c r="A28" s="19">
-        <v>27</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
     </row>
     <row r="29" spans="1:17" ht="26" customHeight="1">
       <c r="A29" s="19">
-        <v>28</v>
-      </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-    </row>
-    <row r="30" spans="1:17" ht="26" customHeight="1">
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:17" ht="56.5" customHeight="1">
       <c r="A30" s="19">
-        <v>29</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-    </row>
-    <row r="31" spans="1:17" ht="56.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="1:17" ht="58.5" customHeight="1">
       <c r="A31" s="19">
-        <v>30</v>
-      </c>
-      <c r="B31" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="13">
+        <v>45511</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A32" s="19">
-        <v>31</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C13:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
+  <mergeCells count="73">
     <mergeCell ref="H8:L8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C8:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
@@ -2509,13 +2625,60 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C8:G12"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H15:L15"/>
     <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
